--- a/updatedLite.xlsx
+++ b/updatedLite.xlsx
@@ -347,7 +347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -363,25 +363,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>LCL</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>20'</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>40'</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>40HC</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>45'</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Utilization</t>
         </is>
@@ -395,15 +400,18 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>95.2%</t>
         </is>
@@ -417,15 +425,18 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>96.4%</t>
         </is>
@@ -445,9 +456,12 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>13</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>99.5%</t>
         </is>
@@ -458,20 +472,23 @@
         <v>3546.55999600887</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>99.8%</t>
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>44</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -480,7 +497,7 @@
         <v>7.70000010728836</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -491,9 +508,12 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>28.5%</t>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>96.3%</t>
         </is>
       </c>
     </row>
@@ -502,7 +522,7 @@
         <v>5.93999996781349</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -513,9 +533,12 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>22.0%</t>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>99.0%</t>
         </is>
       </c>
     </row>
@@ -524,7 +547,7 @@
         <v>1.00999999046326</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -535,9 +558,12 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.7%</t>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>50.5%</t>
         </is>
       </c>
     </row>
@@ -555,9 +581,12 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>95.9%</t>
         </is>
@@ -571,15 +600,18 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>77.5%</t>
         </is>
@@ -590,7 +622,7 @@
         <v>14.0499998307228</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -601,9 +633,12 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>52.0%</t>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>93.7%</t>
         </is>
       </c>
     </row>
@@ -612,7 +647,7 @@
         <v>6.11000002920628</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -623,9 +658,12 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>22.6%</t>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>87.3%</t>
         </is>
       </c>
     </row>
@@ -634,20 +672,23 @@
         <v>336.3100014925</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>97.8%</t>
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>99.8%</t>
         </is>
       </c>
     </row>
@@ -656,18 +697,21 @@
         <v>91.319999486208</v>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>97.1%</t>
         </is>
@@ -681,15 +725,18 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>96.6%</t>
         </is>
@@ -700,7 +747,7 @@
         <v>1.66999995708466</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -711,9 +758,12 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.2%</t>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>83.5%</t>
         </is>
       </c>
     </row>
@@ -722,20 +772,23 @@
         <v>640.05000294447</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>98.8%</t>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>99.9%</t>
         </is>
       </c>
     </row>
@@ -744,7 +797,7 @@
         <v>4.40999999642372</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -755,9 +808,12 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>16.3%</t>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>88.2%</t>
         </is>
       </c>
     </row>
@@ -766,7 +822,7 @@
         <v>1.54999995231628</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -777,9 +833,12 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.7%</t>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>77.5%</t>
         </is>
       </c>
     </row>

--- a/updatedLite.xlsx
+++ b/updatedLite.xlsx
@@ -45,8 +45,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -347,10 +346,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -394,16 +393,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54.2799998295307</v>
+        <v>21.31</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -413,22 +412,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>95.2%</t>
+          <t>78.9%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>174.519999742508</v>
+        <v>89.59</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -438,19 +437,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96.4%</t>
+          <t>95.3%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>983.400001093745</v>
+        <v>9.35</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -459,51 +458,51 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>99.5%</t>
+          <t>34.6%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3546.55999600887</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>81.0%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.70000010728836</v>
+        <v>82.91</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -513,44 +512,44 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96.3%</t>
+          <t>98.7%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.93999996781349</v>
+        <v>1767.45</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>99.0%</t>
+          <t>99.9%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.00999999046326</v>
+        <v>5.38</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -563,13 +562,13 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>50.5%</t>
+          <t>19.9%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>72.8799993693829</v>
+        <v>660.5599999999999</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -581,29 +580,29 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>95.9%</t>
+          <t>98.6%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44.1999991834164</v>
+        <v>20.06</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -613,19 +612,19 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>77.5%</t>
+          <t>74.3%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14.0499998307228</v>
+        <v>0.27</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -638,19 +637,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>93.7%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.11000002920628</v>
+        <v>3.42</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -663,38 +662,38 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>87.3%</t>
+          <t>12.7%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>336.3100014925</v>
+        <v>0.17</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>99.8%</t>
+          <t>0.6%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>91.319999486208</v>
+        <v>7.75</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -706,54 +705,54 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>97.1%</t>
+          <t>28.7%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>249.150001496077</v>
+        <v>4.07</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96.6%</t>
+          <t>15.1%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.66999995708466</v>
+        <v>42.32</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -763,47 +762,47 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>83.5%</t>
+          <t>74.2%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>640.05000294447</v>
+        <v>97.05</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>2</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>99.9%</t>
+          <t>85.1%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.40999999642372</v>
+        <v>70.17</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -813,32 +812,332 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>88.2%</t>
+          <t>83.5%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.54999995231628</v>
+        <v>2.38</v>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>8.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>20.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>272.09</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>77.5%</t>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>98.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>42.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66.61</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>99.4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>63.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>104.52</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>91.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>213.02</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>97.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>48.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>12.8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>217.04</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>99.6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>71.3%</t>
         </is>
       </c>
     </row>

--- a/updatedLite.xlsx
+++ b/updatedLite.xlsx
@@ -474,20 +474,20 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>81.0%</t>
+          <t>89.5%</t>
         </is>
       </c>
     </row>
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>98.6%</t>
+          <t>99.2%</t>
         </is>
       </c>
     </row>
@@ -774,20 +774,20 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>85.1%</t>
+          <t>94.2%</t>
         </is>
       </c>
     </row>
@@ -799,20 +799,20 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>83.5%</t>
+          <t>92.3%</t>
         </is>
       </c>
     </row>
@@ -899,20 +899,20 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>98.9%</t>
+          <t>98.2%</t>
         </is>
       </c>
     </row>
@@ -1024,20 +1024,20 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
         <v>2</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>97.7%</t>
+          <t>97.3%</t>
         </is>
       </c>
     </row>
@@ -1099,20 +1099,20 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
         <v>2</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>99.6%</t>
+          <t>99.1%</t>
         </is>
       </c>
     </row>

--- a/updatedLite.xlsx
+++ b/updatedLite.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14810" xWindow="240" yWindow="110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -43,15 +45,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -346,10 +348,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -362,30 +364,25 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>LCL</t>
+          <t>20'</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>20'</t>
+          <t>40'</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>40'</t>
+          <t>40HC</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>40HC</t>
+          <t>45'</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>45'</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>Utilization</t>
         </is>
@@ -393,7 +390,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82</v>
+        <v>29.73</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -402,54 +399,48 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>97.6%</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>52.2%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>159</v>
+        <v>11.12</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>98.8%</t>
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>41.2%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69.91</v>
+        <v>41.19</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -457,16 +448,36 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>72.3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>92.0%</t>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>56.2%</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>